--- a/GanttChart.xlsx
+++ b/GanttChart.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Excel-GanttChart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB60BB78-EC1D-4106-A89B-88A085B602EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8EBA41D-F38E-4380-A083-2E0B81577594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="37710" windowHeight="21840" xr2:uid="{51C15494-66F9-415D-ACBF-D6F98B0E2E93}"/>
   </bookViews>
   <sheets>
-    <sheet name="ガントチャート" sheetId="1" r:id="rId1"/>
+    <sheet name="TimeLine" sheetId="1" r:id="rId1"/>
+    <sheet name="Report" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ガントチャート!$A$6:$K$169</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">ガントチャート!$A$1:$EC$169</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TimeLine!$A$6:$K$169</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">TimeLine!$A$1:$EC$169</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -130,7 +131,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
   <si>
     <t>#</t>
     <phoneticPr fontId="1"/>
@@ -300,10 +301,6 @@
   </si>
   <si>
     <t>-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>La</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -985,10 +982,10 @@
   <dimension ref="A1:EC170"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane xSplit="9" ySplit="6" topLeftCell="J7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="6" topLeftCell="J9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="I12" sqref="I12"/>
+      <selection pane="bottomRight" activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1022,7 +1019,9 @@
       </c>
     </row>
     <row r="2" spans="1:133" ht="27" customHeight="1">
-      <c r="A2" s="28"/>
+      <c r="A2" s="28" t="s">
+        <v>6</v>
+      </c>
       <c r="B2" s="29"/>
       <c r="C2" s="30"/>
       <c r="H2" s="27" t="s">
@@ -2090,7 +2089,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
@@ -3179,4 +3178,17 @@
   <pageSetup paperSize="9" scale="15" orientation="landscape" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2742E82F-5ED0-4833-895C-C75CEDF7E47D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/GanttChart.xlsx
+++ b/GanttChart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Excel-GanttChart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8EBA41D-F38E-4380-A083-2E0B81577594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB454B51-4DB7-4204-A9BC-CE5D49D75FB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="37710" windowHeight="21840" xr2:uid="{51C15494-66F9-415D-ACBF-D6F98B0E2E93}"/>
+    <workbookView xWindow="1215" yWindow="2595" windowWidth="18435" windowHeight="10935" xr2:uid="{51C15494-66F9-415D-ACBF-D6F98B0E2E93}"/>
   </bookViews>
   <sheets>
     <sheet name="TimeLine" sheetId="1" r:id="rId1"/>
@@ -131,7 +131,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
   <si>
     <t>#</t>
     <phoneticPr fontId="1"/>
@@ -311,7 +311,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="d"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -378,6 +378,14 @@
     </font>
     <font>
       <sz val="6"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="3"/>
@@ -520,7 +528,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -613,6 +621,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -640,8 +654,8 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
+        <patternFill patternType="gray0625">
+          <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -654,8 +668,8 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="gray0625">
-          <bgColor theme="9" tint="0.59996337778862885"/>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
     </dxf>
@@ -981,22 +995,22 @@
   </sheetPr>
   <dimension ref="A1:EC170"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane xSplit="9" ySplit="6" topLeftCell="J9" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="9" ySplit="6" topLeftCell="J7" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="C29" sqref="C29"/>
+      <selection pane="bottomRight" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="4.75" customWidth="1"/>
-    <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="22.125" customWidth="1"/>
+    <col min="2" max="2" width="11.875" customWidth="1"/>
+    <col min="3" max="3" width="14.375" customWidth="1"/>
     <col min="4" max="4" width="8.5" customWidth="1"/>
     <col min="5" max="5" width="6.75" style="7" customWidth="1"/>
     <col min="8" max="8" width="7.875" customWidth="1"/>
-    <col min="9" max="9" width="17.25" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
     <col min="10" max="10" width="5.625" customWidth="1"/>
     <col min="11" max="11" width="5" customWidth="1"/>
     <col min="12" max="12" width="5" style="10" customWidth="1"/>
@@ -1029,7 +1043,7 @@
       </c>
     </row>
     <row r="3" spans="1:133">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="31" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="18"/>
@@ -1048,7 +1062,7 @@
       </c>
     </row>
     <row r="4" spans="1:133">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="32" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="18"/>
@@ -1076,487 +1090,487 @@
         <v>Mar</v>
       </c>
       <c r="M5" s="5" t="str">
-        <f t="shared" ref="M5:BX5" si="0">IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
+        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
         <v/>
       </c>
       <c r="N5" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
         <v/>
       </c>
       <c r="O5" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
         <v/>
       </c>
       <c r="P5" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
         <v>Apr</v>
       </c>
       <c r="Q5" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
         <v/>
       </c>
       <c r="R5" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
         <v/>
       </c>
       <c r="S5" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
         <v/>
       </c>
       <c r="T5" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
         <v/>
       </c>
       <c r="U5" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
         <v>May</v>
       </c>
       <c r="V5" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
         <v/>
       </c>
       <c r="W5" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
         <v/>
       </c>
       <c r="X5" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
         <v/>
       </c>
       <c r="Y5" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
         <v>Jun</v>
       </c>
       <c r="Z5" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
         <v/>
       </c>
       <c r="AA5" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
         <v/>
       </c>
       <c r="AB5" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
         <v/>
       </c>
       <c r="AC5" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
         <v>Jul</v>
       </c>
       <c r="AD5" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
         <v/>
       </c>
       <c r="AE5" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
         <v/>
       </c>
       <c r="AF5" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
         <v/>
       </c>
       <c r="AG5" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
         <v/>
       </c>
       <c r="AH5" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
         <v>Aug</v>
       </c>
       <c r="AI5" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
         <v/>
       </c>
       <c r="AJ5" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
         <v/>
       </c>
       <c r="AK5" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
         <v/>
       </c>
       <c r="AL5" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
         <v/>
       </c>
       <c r="AM5" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
         <v/>
       </c>
       <c r="AN5" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
         <v/>
       </c>
       <c r="AO5" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
         <v/>
       </c>
       <c r="AP5" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
         <v/>
       </c>
       <c r="AQ5" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
         <v/>
       </c>
       <c r="AR5" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
         <v/>
       </c>
       <c r="AS5" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
         <v/>
       </c>
       <c r="AT5" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
         <v/>
       </c>
       <c r="AU5" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
         <v/>
       </c>
       <c r="AV5" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
         <v/>
       </c>
       <c r="AW5" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
         <v/>
       </c>
       <c r="AX5" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
         <v/>
       </c>
       <c r="AY5" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
         <v/>
       </c>
       <c r="AZ5" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
         <v/>
       </c>
       <c r="BA5" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
         <v/>
       </c>
       <c r="BB5" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
         <v/>
       </c>
       <c r="BC5" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
         <v/>
       </c>
       <c r="BD5" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
         <v/>
       </c>
       <c r="BE5" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
         <v/>
       </c>
       <c r="BF5" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
         <v/>
       </c>
       <c r="BG5" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
         <v/>
       </c>
       <c r="BH5" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
         <v/>
       </c>
       <c r="BI5" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
         <v/>
       </c>
       <c r="BJ5" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
         <v/>
       </c>
       <c r="BK5" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
         <v/>
       </c>
       <c r="BL5" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
         <v/>
       </c>
       <c r="BM5" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
         <v/>
       </c>
       <c r="BN5" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
         <v/>
       </c>
       <c r="BO5" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
         <v/>
       </c>
       <c r="BP5" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
         <v/>
       </c>
       <c r="BQ5" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
         <v/>
       </c>
       <c r="BR5" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
         <v/>
       </c>
       <c r="BS5" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
         <v/>
       </c>
       <c r="BT5" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
         <v/>
       </c>
       <c r="BU5" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
         <v/>
       </c>
       <c r="BV5" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
         <v/>
       </c>
       <c r="BW5" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
         <v/>
       </c>
       <c r="BX5" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
         <v/>
       </c>
       <c r="BY5" s="5" t="str">
-        <f t="shared" ref="BY5:EC5" si="1">IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
+        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
         <v/>
       </c>
       <c r="BZ5" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
         <v/>
       </c>
       <c r="CA5" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
         <v/>
       </c>
       <c r="CB5" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
         <v/>
       </c>
       <c r="CC5" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
         <v/>
       </c>
       <c r="CD5" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
         <v/>
       </c>
       <c r="CE5" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
         <v/>
       </c>
       <c r="CF5" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
         <v/>
       </c>
       <c r="CG5" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
         <v/>
       </c>
       <c r="CH5" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
         <v/>
       </c>
       <c r="CI5" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
         <v/>
       </c>
       <c r="CJ5" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
         <v/>
       </c>
       <c r="CK5" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
         <v/>
       </c>
       <c r="CL5" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
         <v/>
       </c>
       <c r="CM5" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
         <v/>
       </c>
       <c r="CN5" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
         <v/>
       </c>
       <c r="CO5" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
         <v/>
       </c>
       <c r="CP5" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
         <v/>
       </c>
       <c r="CQ5" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
         <v/>
       </c>
       <c r="CR5" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
         <v/>
       </c>
       <c r="CS5" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
         <v/>
       </c>
       <c r="CT5" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
         <v/>
       </c>
       <c r="CU5" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
         <v/>
       </c>
       <c r="CV5" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
         <v/>
       </c>
       <c r="CW5" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
         <v/>
       </c>
       <c r="CX5" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
         <v/>
       </c>
       <c r="CY5" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
         <v/>
       </c>
       <c r="CZ5" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
         <v/>
       </c>
       <c r="DA5" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
         <v/>
       </c>
       <c r="DB5" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
         <v/>
       </c>
       <c r="DC5" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
         <v/>
       </c>
       <c r="DD5" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
         <v/>
       </c>
       <c r="DE5" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
         <v/>
       </c>
       <c r="DF5" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
         <v/>
       </c>
       <c r="DG5" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
         <v/>
       </c>
       <c r="DH5" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
         <v/>
       </c>
       <c r="DI5" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
         <v/>
       </c>
       <c r="DJ5" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
         <v/>
       </c>
       <c r="DK5" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
         <v/>
       </c>
       <c r="DL5" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
         <v/>
       </c>
       <c r="DM5" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
         <v/>
       </c>
       <c r="DN5" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
         <v/>
       </c>
       <c r="DO5" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
         <v/>
       </c>
       <c r="DP5" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
         <v/>
       </c>
       <c r="DQ5" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
         <v/>
       </c>
       <c r="DR5" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
         <v/>
       </c>
       <c r="DS5" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
         <v/>
       </c>
       <c r="DT5" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
         <v/>
       </c>
       <c r="DU5" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
         <v/>
       </c>
       <c r="DV5" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
         <v/>
       </c>
       <c r="DW5" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
         <v/>
       </c>
       <c r="DX5" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
         <v/>
       </c>
       <c r="DY5" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
         <v/>
       </c>
       <c r="DZ5" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
         <v/>
       </c>
       <c r="EA5" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
         <v/>
       </c>
       <c r="EB5" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
         <v/>
       </c>
       <c r="EC5" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
         <v/>
       </c>
     </row>
@@ -1599,487 +1613,487 @@
         <v>44284</v>
       </c>
       <c r="M6" s="12">
-        <f t="shared" ref="M6:BX6" si="2">IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
         <v>44291</v>
       </c>
       <c r="N6" s="12">
-        <f t="shared" si="2"/>
+        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
         <v>44298</v>
       </c>
       <c r="O6" s="12">
-        <f t="shared" si="2"/>
+        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
         <v>44305</v>
       </c>
       <c r="P6" s="12">
-        <f t="shared" si="2"/>
+        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
         <v>44312</v>
       </c>
       <c r="Q6" s="12">
-        <f t="shared" si="2"/>
+        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
         <v>44319</v>
       </c>
       <c r="R6" s="12">
-        <f t="shared" si="2"/>
+        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
         <v>44326</v>
       </c>
       <c r="S6" s="12">
-        <f t="shared" si="2"/>
+        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
         <v>44333</v>
       </c>
       <c r="T6" s="12">
-        <f t="shared" si="2"/>
+        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
         <v>44340</v>
       </c>
       <c r="U6" s="12">
-        <f t="shared" si="2"/>
+        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
         <v>44347</v>
       </c>
       <c r="V6" s="12">
-        <f t="shared" si="2"/>
+        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
         <v>44354</v>
       </c>
       <c r="W6" s="12">
-        <f t="shared" si="2"/>
+        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
         <v>44361</v>
       </c>
       <c r="X6" s="12">
-        <f t="shared" si="2"/>
+        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
         <v>44368</v>
       </c>
       <c r="Y6" s="12">
-        <f t="shared" si="2"/>
+        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
         <v>44375</v>
       </c>
       <c r="Z6" s="12">
-        <f t="shared" si="2"/>
+        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
         <v>44382</v>
       </c>
       <c r="AA6" s="12">
-        <f t="shared" si="2"/>
+        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
         <v>44389</v>
       </c>
       <c r="AB6" s="12">
-        <f t="shared" si="2"/>
+        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
         <v>44396</v>
       </c>
       <c r="AC6" s="12">
-        <f t="shared" si="2"/>
+        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
         <v>44403</v>
       </c>
       <c r="AD6" s="12">
-        <f t="shared" si="2"/>
+        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
         <v>44410</v>
       </c>
       <c r="AE6" s="12">
-        <f t="shared" si="2"/>
+        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
         <v>44417</v>
       </c>
       <c r="AF6" s="12">
-        <f t="shared" si="2"/>
+        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
         <v>44424</v>
       </c>
       <c r="AG6" s="12">
-        <f t="shared" si="2"/>
+        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
         <v>44431</v>
       </c>
       <c r="AH6" s="12">
-        <f t="shared" si="2"/>
+        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
         <v>44438</v>
       </c>
       <c r="AI6" s="12">
-        <f t="shared" si="2"/>
+        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
         <v>44445</v>
       </c>
       <c r="AJ6" s="12">
-        <f t="shared" si="2"/>
+        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
         <v>44452</v>
       </c>
       <c r="AK6" s="12">
-        <f t="shared" si="2"/>
+        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
         <v>44459</v>
       </c>
       <c r="AL6" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
         <v/>
       </c>
       <c r="AM6" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
         <v/>
       </c>
       <c r="AN6" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
         <v/>
       </c>
       <c r="AO6" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
         <v/>
       </c>
       <c r="AP6" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
         <v/>
       </c>
       <c r="AQ6" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
         <v/>
       </c>
       <c r="AR6" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
         <v/>
       </c>
       <c r="AS6" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
         <v/>
       </c>
       <c r="AT6" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
         <v/>
       </c>
       <c r="AU6" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
         <v/>
       </c>
       <c r="AV6" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
         <v/>
       </c>
       <c r="AW6" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
         <v/>
       </c>
       <c r="AX6" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
         <v/>
       </c>
       <c r="AY6" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
         <v/>
       </c>
       <c r="AZ6" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
         <v/>
       </c>
       <c r="BA6" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
         <v/>
       </c>
       <c r="BB6" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
         <v/>
       </c>
       <c r="BC6" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
         <v/>
       </c>
       <c r="BD6" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
         <v/>
       </c>
       <c r="BE6" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
         <v/>
       </c>
       <c r="BF6" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
         <v/>
       </c>
       <c r="BG6" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
         <v/>
       </c>
       <c r="BH6" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
         <v/>
       </c>
       <c r="BI6" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
         <v/>
       </c>
       <c r="BJ6" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
         <v/>
       </c>
       <c r="BK6" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
         <v/>
       </c>
       <c r="BL6" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
         <v/>
       </c>
       <c r="BM6" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
         <v/>
       </c>
       <c r="BN6" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
         <v/>
       </c>
       <c r="BO6" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
         <v/>
       </c>
       <c r="BP6" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
         <v/>
       </c>
       <c r="BQ6" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
         <v/>
       </c>
       <c r="BR6" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
         <v/>
       </c>
       <c r="BS6" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
         <v/>
       </c>
       <c r="BT6" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
         <v/>
       </c>
       <c r="BU6" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
         <v/>
       </c>
       <c r="BV6" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
         <v/>
       </c>
       <c r="BW6" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
         <v/>
       </c>
       <c r="BX6" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
         <v/>
       </c>
       <c r="BY6" s="12" t="str">
-        <f t="shared" ref="BY6:EC6" si="3">IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
         <v/>
       </c>
       <c r="BZ6" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
         <v/>
       </c>
       <c r="CA6" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
         <v/>
       </c>
       <c r="CB6" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
         <v/>
       </c>
       <c r="CC6" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
         <v/>
       </c>
       <c r="CD6" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
         <v/>
       </c>
       <c r="CE6" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
         <v/>
       </c>
       <c r="CF6" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
         <v/>
       </c>
       <c r="CG6" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
         <v/>
       </c>
       <c r="CH6" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
         <v/>
       </c>
       <c r="CI6" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
         <v/>
       </c>
       <c r="CJ6" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
         <v/>
       </c>
       <c r="CK6" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
         <v/>
       </c>
       <c r="CL6" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
         <v/>
       </c>
       <c r="CM6" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
         <v/>
       </c>
       <c r="CN6" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
         <v/>
       </c>
       <c r="CO6" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
         <v/>
       </c>
       <c r="CP6" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
         <v/>
       </c>
       <c r="CQ6" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
         <v/>
       </c>
       <c r="CR6" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
         <v/>
       </c>
       <c r="CS6" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
         <v/>
       </c>
       <c r="CT6" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
         <v/>
       </c>
       <c r="CU6" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
         <v/>
       </c>
       <c r="CV6" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
         <v/>
       </c>
       <c r="CW6" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
         <v/>
       </c>
       <c r="CX6" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
         <v/>
       </c>
       <c r="CY6" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
         <v/>
       </c>
       <c r="CZ6" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
         <v/>
       </c>
       <c r="DA6" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
         <v/>
       </c>
       <c r="DB6" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
         <v/>
       </c>
       <c r="DC6" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
         <v/>
       </c>
       <c r="DD6" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
         <v/>
       </c>
       <c r="DE6" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
         <v/>
       </c>
       <c r="DF6" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
         <v/>
       </c>
       <c r="DG6" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
         <v/>
       </c>
       <c r="DH6" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
         <v/>
       </c>
       <c r="DI6" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
         <v/>
       </c>
       <c r="DJ6" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
         <v/>
       </c>
       <c r="DK6" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
         <v/>
       </c>
       <c r="DL6" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
         <v/>
       </c>
       <c r="DM6" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
         <v/>
       </c>
       <c r="DN6" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
         <v/>
       </c>
       <c r="DO6" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
         <v/>
       </c>
       <c r="DP6" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
         <v/>
       </c>
       <c r="DQ6" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
         <v/>
       </c>
       <c r="DR6" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
         <v/>
       </c>
       <c r="DS6" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
         <v/>
       </c>
       <c r="DT6" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
         <v/>
       </c>
       <c r="DU6" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
         <v/>
       </c>
       <c r="DV6" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
         <v/>
       </c>
       <c r="DW6" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
         <v/>
       </c>
       <c r="DX6" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
         <v/>
       </c>
       <c r="DY6" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
         <v/>
       </c>
       <c r="DZ6" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
         <v/>
       </c>
       <c r="EA6" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
         <v/>
       </c>
       <c r="EB6" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
         <v/>
       </c>
       <c r="EC6" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
         <v/>
       </c>
     </row>
@@ -2112,7 +2126,7 @@
     </row>
     <row r="8" spans="1:133">
       <c r="A8">
-        <f t="shared" ref="A8:A71" si="4">ROW()-6</f>
+        <f t="shared" ref="A8:A71" si="0">ROW()-6</f>
         <v>2</v>
       </c>
       <c r="B8" t="s">
@@ -2139,7 +2153,7 @@
     </row>
     <row r="9" spans="1:133">
       <c r="A9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B9" t="s">
@@ -2158,7 +2172,7 @@
         <v>44316</v>
       </c>
       <c r="G9" s="6">
-        <v>44336</v>
+        <v>44318</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>26</v>
@@ -2166,961 +2180,979 @@
     </row>
     <row r="10" spans="1:133">
       <c r="A10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="7">
+        <v>4</v>
+      </c>
+      <c r="F10" s="6">
+        <v>44287</v>
+      </c>
+      <c r="G10" s="6">
+        <v>44377</v>
       </c>
     </row>
     <row r="11" spans="1:133">
       <c r="A11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:133">
       <c r="A12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:133">
       <c r="A13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:133">
       <c r="A14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:133">
       <c r="A15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:133">
       <c r="A16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>44</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>46</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>47</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>49</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>51</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>52</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>53</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>54</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>55</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>56</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>57</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>58</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>59</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>61</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>62</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>63</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>64</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>65</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72">
-        <f t="shared" ref="A72:A135" si="5">ROW()-6</f>
+        <f t="shared" ref="A72:A135" si="1">ROW()-6</f>
         <v>66</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>67</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>68</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>69</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>71</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>72</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>73</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>74</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>76</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>77</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>78</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>79</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>81</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>82</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>83</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>84</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>85</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>86</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>87</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>88</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>89</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>91</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>92</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>93</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>94</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>95</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>96</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>97</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>98</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>99</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>101</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>102</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>103</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>104</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>105</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>106</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>107</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>108</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>109</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>110</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>111</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>112</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>113</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>114</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>115</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>116</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>117</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>118</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>119</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>121</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>122</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>123</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>124</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>125</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>126</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>127</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>128</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>129</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136">
-        <f t="shared" ref="A136:A169" si="6">ROW()-6</f>
+        <f t="shared" ref="A136:A169" si="2">ROW()-6</f>
         <v>130</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>131</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>132</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>133</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>134</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>135</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>136</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>137</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>138</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>139</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>140</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>141</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>142</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>143</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>144</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>145</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>146</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>147</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>148</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>149</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>151</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>152</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>153</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>154</v>
       </c>
     </row>
     <row r="161" spans="1:133">
       <c r="A161">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>155</v>
       </c>
     </row>
     <row r="162" spans="1:133">
       <c r="A162">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>156</v>
       </c>
     </row>
     <row r="163" spans="1:133">
       <c r="A163">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>157</v>
       </c>
     </row>
     <row r="164" spans="1:133">
       <c r="A164">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>158</v>
       </c>
     </row>
     <row r="165" spans="1:133">
       <c r="A165">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>159</v>
       </c>
     </row>
     <row r="166" spans="1:133">
       <c r="A166">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>160</v>
       </c>
     </row>
     <row r="167" spans="1:133">
       <c r="A167">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>161</v>
       </c>
     </row>
     <row r="168" spans="1:133">
       <c r="A168">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>162</v>
       </c>
     </row>
     <row r="169" spans="1:133" s="13" customFormat="1" ht="19.5" thickBot="1">
       <c r="A169" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>163</v>
       </c>
       <c r="E169" s="14"/>
@@ -3151,14 +3183,14 @@
     <cfRule type="expression" dxfId="5" priority="1">
       <formula>AND(AND(AND(L$6&gt;=$F7 - $F$3 + 1,L$6&lt;=$G7),NOT(L$6="")),$F7=$G7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="5">
-      <formula>AND(AND(L$6&gt;=$F7 - $F$3 + 1,L$6&lt;=$G7),NOT(L$6=""))</formula>
+    <cfRule type="expression" dxfId="4" priority="2">
+      <formula>AND(AND(AND(L$6&gt;=$F7 - $F$3 + 1,L$6&lt;=$G7),NOT(L$6="")),$H7=$H$4)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="3" priority="3">
       <formula>AND(AND(AND(L$6&gt;=$F7 - $F$3 + 1,L$6&lt;=$G7),NOT(L$6="")),$H7=$H$3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2">
-      <formula>AND(AND(AND(L$6&gt;=$F7 - $F$3 + 1,L$6&lt;=$G7),NOT(L$6="")),$H7=$H$4)</formula>
+    <cfRule type="expression" dxfId="2" priority="5">
+      <formula>AND(AND(L$6&gt;=$F7 - $F$3 + 1,L$6&lt;=$G7),NOT(L$6=""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6:EC1013">

--- a/GanttChart.xlsx
+++ b/GanttChart.xlsx
@@ -2,13 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Excel-GanttChart\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB454B51-4DB7-4204-A9BC-CE5D49D75FB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BABCD18-A0D0-4D3A-AF95-A810C1F486EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1215" yWindow="2595" windowWidth="18435" windowHeight="10935" xr2:uid="{51C15494-66F9-415D-ACBF-D6F98B0E2E93}"/>
   </bookViews>
@@ -41,7 +36,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>Tomoki Hayashi</author>
+    <author>作成者</author>
   </authors>
   <commentList>
     <comment ref="F4" authorId="0" shapeId="0" xr:uid="{E9DCB504-4454-4CD0-A33C-B8C1D16C7ECB}">
@@ -55,7 +50,7 @@
             <family val="3"/>
             <charset val="128"/>
           </rPr>
-          <t>Tomoki Hayashi:</t>
+          <t>作成者:</t>
         </r>
         <r>
           <rPr>
@@ -84,7 +79,7 @@
             <family val="3"/>
             <charset val="128"/>
           </rPr>
-          <t>Tomoki Hayashi:</t>
+          <t>作成者:</t>
         </r>
         <r>
           <rPr>
@@ -111,7 +106,7 @@
             <family val="3"/>
             <charset val="128"/>
           </rPr>
-          <t>Tomoki Hayashi:</t>
+          <t>作成者:</t>
         </r>
         <r>
           <rPr>
@@ -995,11 +990,11 @@
   </sheetPr>
   <dimension ref="A1:EC170"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane xSplit="9" ySplit="6" topLeftCell="J7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="I11" sqref="I11"/>
+      <selection pane="bottomRight" activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1048,14 +1043,14 @@
       </c>
       <c r="B3" s="18"/>
       <c r="C3" s="19">
-        <v>44287</v>
+        <v>44317</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="20"/>
       <c r="F3" s="21">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H3" s="27" t="s">
         <v>23</v>
@@ -1067,7 +1062,7 @@
       </c>
       <c r="B4" s="18"/>
       <c r="C4" s="19">
-        <v>44469</v>
+        <v>44346</v>
       </c>
       <c r="D4" s="18" t="s">
         <v>13</v>
@@ -1087,7 +1082,7 @@
       <c r="E5" s="8"/>
       <c r="L5" s="11" t="str">
         <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
-        <v>Mar</v>
+        <v>Apr</v>
       </c>
       <c r="M5" s="5" t="str">
         <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
@@ -1103,11 +1098,11 @@
       </c>
       <c r="P5" s="5" t="str">
         <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
-        <v>Apr</v>
+        <v/>
       </c>
       <c r="Q5" s="5" t="str">
         <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
-        <v/>
+        <v>May</v>
       </c>
       <c r="R5" s="5" t="str">
         <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
@@ -1123,7 +1118,7 @@
       </c>
       <c r="U5" s="5" t="str">
         <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
-        <v>May</v>
+        <v/>
       </c>
       <c r="V5" s="5" t="str">
         <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
@@ -1139,7 +1134,7 @@
       </c>
       <c r="Y5" s="5" t="str">
         <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
-        <v>Jun</v>
+        <v/>
       </c>
       <c r="Z5" s="5" t="str">
         <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
@@ -1155,7 +1150,7 @@
       </c>
       <c r="AC5" s="5" t="str">
         <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
-        <v>Jul</v>
+        <v/>
       </c>
       <c r="AD5" s="5" t="str">
         <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
@@ -1175,7 +1170,7 @@
       </c>
       <c r="AH5" s="5" t="str">
         <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
-        <v>Aug</v>
+        <v/>
       </c>
       <c r="AI5" s="5" t="str">
         <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
@@ -1610,119 +1605,119 @@
       </c>
       <c r="L6" s="12">
         <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
-        <v>44284</v>
+        <v>44312</v>
       </c>
       <c r="M6" s="12">
         <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
-        <v>44291</v>
+        <v>44313</v>
       </c>
       <c r="N6" s="12">
         <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
-        <v>44298</v>
+        <v>44314</v>
       </c>
       <c r="O6" s="12">
         <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
-        <v>44305</v>
+        <v>44315</v>
       </c>
       <c r="P6" s="12">
         <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
-        <v>44312</v>
+        <v>44316</v>
       </c>
       <c r="Q6" s="12">
         <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <v>44317</v>
+      </c>
+      <c r="R6" s="12">
+        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <v>44318</v>
+      </c>
+      <c r="S6" s="12">
+        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
         <v>44319</v>
       </c>
-      <c r="R6" s="12">
+      <c r="T6" s="12">
+        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <v>44320</v>
+      </c>
+      <c r="U6" s="12">
+        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <v>44321</v>
+      </c>
+      <c r="V6" s="12">
+        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <v>44322</v>
+      </c>
+      <c r="W6" s="12">
+        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <v>44323</v>
+      </c>
+      <c r="X6" s="12">
+        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <v>44324</v>
+      </c>
+      <c r="Y6" s="12">
+        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <v>44325</v>
+      </c>
+      <c r="Z6" s="12">
         <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
         <v>44326</v>
       </c>
-      <c r="S6" s="12">
+      <c r="AA6" s="12">
+        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <v>44327</v>
+      </c>
+      <c r="AB6" s="12">
+        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <v>44328</v>
+      </c>
+      <c r="AC6" s="12">
+        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <v>44329</v>
+      </c>
+      <c r="AD6" s="12">
+        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <v>44330</v>
+      </c>
+      <c r="AE6" s="12">
+        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <v>44331</v>
+      </c>
+      <c r="AF6" s="12">
+        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <v>44332</v>
+      </c>
+      <c r="AG6" s="12">
         <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
         <v>44333</v>
       </c>
-      <c r="T6" s="12">
+      <c r="AH6" s="12">
+        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <v>44334</v>
+      </c>
+      <c r="AI6" s="12">
+        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <v>44335</v>
+      </c>
+      <c r="AJ6" s="12">
+        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <v>44336</v>
+      </c>
+      <c r="AK6" s="12">
+        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <v>44337</v>
+      </c>
+      <c r="AL6" s="12">
+        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <v>44338</v>
+      </c>
+      <c r="AM6" s="12">
+        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <v>44339</v>
+      </c>
+      <c r="AN6" s="12">
         <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
         <v>44340</v>
-      </c>
-      <c r="U6" s="12">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
-        <v>44347</v>
-      </c>
-      <c r="V6" s="12">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
-        <v>44354</v>
-      </c>
-      <c r="W6" s="12">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
-        <v>44361</v>
-      </c>
-      <c r="X6" s="12">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
-        <v>44368</v>
-      </c>
-      <c r="Y6" s="12">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
-        <v>44375</v>
-      </c>
-      <c r="Z6" s="12">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
-        <v>44382</v>
-      </c>
-      <c r="AA6" s="12">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
-        <v>44389</v>
-      </c>
-      <c r="AB6" s="12">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
-        <v>44396</v>
-      </c>
-      <c r="AC6" s="12">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
-        <v>44403</v>
-      </c>
-      <c r="AD6" s="12">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
-        <v>44410</v>
-      </c>
-      <c r="AE6" s="12">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
-        <v>44417</v>
-      </c>
-      <c r="AF6" s="12">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
-        <v>44424</v>
-      </c>
-      <c r="AG6" s="12">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
-        <v>44431</v>
-      </c>
-      <c r="AH6" s="12">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
-        <v>44438</v>
-      </c>
-      <c r="AI6" s="12">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
-        <v>44445</v>
-      </c>
-      <c r="AJ6" s="12">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
-        <v>44452</v>
-      </c>
-      <c r="AK6" s="12">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
-        <v>44459</v>
-      </c>
-      <c r="AL6" s="12" t="str">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
-        <v/>
-      </c>
-      <c r="AM6" s="12" t="str">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
-        <v/>
-      </c>
-      <c r="AN6" s="12" t="str">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
-        <v/>
       </c>
       <c r="AO6" s="12" t="str">
         <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
@@ -2148,7 +2143,7 @@
         <v>44330</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:133">
@@ -2172,10 +2167,10 @@
         <v>44316</v>
       </c>
       <c r="G9" s="6">
-        <v>44318</v>
+        <v>44328</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:133">
@@ -3222,5 +3217,6 @@
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/GanttChart.xlsx
+++ b/GanttChart.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BABCD18-A0D0-4D3A-AF95-A810C1F486EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF6ABADA-24D9-46EA-A214-6F2B310DDB34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1215" yWindow="2595" windowWidth="18435" windowHeight="10935" xr2:uid="{51C15494-66F9-415D-ACBF-D6F98B0E2E93}"/>
+    <workbookView xWindow="4680" yWindow="4680" windowWidth="18435" windowHeight="10935" xr2:uid="{51C15494-66F9-415D-ACBF-D6F98B0E2E93}"/>
   </bookViews>
   <sheets>
     <sheet name="TimeLine" sheetId="1" r:id="rId1"/>
@@ -126,7 +126,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
   <si>
     <t>#</t>
     <phoneticPr fontId="1"/>
@@ -608,6 +608,12 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -617,17 +623,119 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="20">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGray">
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGray">
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -991,10 +1099,10 @@
   <dimension ref="A1:EC170"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="9" ySplit="6" topLeftCell="J7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="6" topLeftCell="L7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="K19" sqref="K19"/>
+      <selection pane="bottomRight" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1028,17 +1136,17 @@
       </c>
     </row>
     <row r="2" spans="1:133" ht="27" customHeight="1">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="30"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="32"/>
       <c r="H2" s="27" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:133">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="28" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="18"/>
@@ -1057,7 +1165,7 @@
       </c>
     </row>
     <row r="4" spans="1:133">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="29" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="18"/>
@@ -1081,491 +1189,491 @@
     <row r="5" spans="1:133" s="4" customFormat="1" ht="18">
       <c r="E5" s="8"/>
       <c r="L5" s="11" t="str">
-        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
+        <f t="shared" ref="L5:AQ5" si="0">IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
         <v>Apr</v>
       </c>
       <c r="M5" s="5" t="str">
-        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="N5" s="5" t="str">
-        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="O5" s="5" t="str">
-        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="P5" s="5" t="str">
-        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="Q5" s="5" t="str">
-        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
+        <f t="shared" si="0"/>
         <v>May</v>
       </c>
       <c r="R5" s="5" t="str">
-        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="S5" s="5" t="str">
-        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="T5" s="5" t="str">
-        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="U5" s="5" t="str">
-        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="V5" s="5" t="str">
-        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="W5" s="5" t="str">
-        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="X5" s="5" t="str">
-        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="Y5" s="5" t="str">
-        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="Z5" s="5" t="str">
-        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="AA5" s="5" t="str">
-        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="AB5" s="5" t="str">
-        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="AC5" s="5" t="str">
-        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="AD5" s="5" t="str">
-        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="AE5" s="5" t="str">
-        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="AF5" s="5" t="str">
-        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="AG5" s="5" t="str">
-        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="AH5" s="5" t="str">
-        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="AI5" s="5" t="str">
-        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="AJ5" s="5" t="str">
-        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="AK5" s="5" t="str">
-        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="AL5" s="5" t="str">
-        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="AM5" s="5" t="str">
-        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="AN5" s="5" t="str">
-        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="AO5" s="5" t="str">
-        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="AP5" s="5" t="str">
-        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="AQ5" s="5" t="str">
-        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="AR5" s="5" t="str">
-        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
+        <f t="shared" ref="AR5:BW5" si="1">IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
         <v/>
       </c>
       <c r="AS5" s="5" t="str">
-        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AT5" s="5" t="str">
-        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AU5" s="5" t="str">
-        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AV5" s="5" t="str">
-        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AW5" s="5" t="str">
-        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AX5" s="5" t="str">
-        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AY5" s="5" t="str">
-        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AZ5" s="5" t="str">
-        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="BA5" s="5" t="str">
-        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="BB5" s="5" t="str">
-        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="BC5" s="5" t="str">
-        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="BD5" s="5" t="str">
-        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="BE5" s="5" t="str">
-        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="BF5" s="5" t="str">
-        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="BG5" s="5" t="str">
-        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="BH5" s="5" t="str">
-        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="BI5" s="5" t="str">
-        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="BJ5" s="5" t="str">
-        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="BK5" s="5" t="str">
-        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="BL5" s="5" t="str">
-        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="BM5" s="5" t="str">
-        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="BN5" s="5" t="str">
-        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="BO5" s="5" t="str">
-        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="BP5" s="5" t="str">
-        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="BQ5" s="5" t="str">
-        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="BR5" s="5" t="str">
-        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="BS5" s="5" t="str">
-        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="BT5" s="5" t="str">
-        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="BU5" s="5" t="str">
-        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="BV5" s="5" t="str">
-        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="BW5" s="5" t="str">
-        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="BX5" s="5" t="str">
-        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
+        <f t="shared" ref="BX5:DC5" si="2">IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
         <v/>
       </c>
       <c r="BY5" s="5" t="str">
-        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="BZ5" s="5" t="str">
-        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="CA5" s="5" t="str">
-        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="CB5" s="5" t="str">
-        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="CC5" s="5" t="str">
-        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="CD5" s="5" t="str">
-        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="CE5" s="5" t="str">
-        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="CF5" s="5" t="str">
-        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="CG5" s="5" t="str">
-        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="CH5" s="5" t="str">
-        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="CI5" s="5" t="str">
-        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="CJ5" s="5" t="str">
-        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="CK5" s="5" t="str">
-        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="CL5" s="5" t="str">
-        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="CM5" s="5" t="str">
-        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="CN5" s="5" t="str">
-        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="CO5" s="5" t="str">
-        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="CP5" s="5" t="str">
-        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="CQ5" s="5" t="str">
-        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="CR5" s="5" t="str">
-        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="CS5" s="5" t="str">
-        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="CT5" s="5" t="str">
-        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="CU5" s="5" t="str">
-        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="CV5" s="5" t="str">
-        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="CW5" s="5" t="str">
-        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="CX5" s="5" t="str">
-        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="CY5" s="5" t="str">
-        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="CZ5" s="5" t="str">
-        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="DA5" s="5" t="str">
-        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="DB5" s="5" t="str">
-        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="DC5" s="5" t="str">
-        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="DD5" s="5" t="str">
-        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
+        <f t="shared" ref="DD5:EC5" si="3">IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
         <v/>
       </c>
       <c r="DE5" s="5" t="str">
-        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="DF5" s="5" t="str">
-        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="DG5" s="5" t="str">
-        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="DH5" s="5" t="str">
-        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="DI5" s="5" t="str">
-        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="DJ5" s="5" t="str">
-        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="DK5" s="5" t="str">
-        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="DL5" s="5" t="str">
-        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="DM5" s="5" t="str">
-        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="DN5" s="5" t="str">
-        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="DO5" s="5" t="str">
-        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="DP5" s="5" t="str">
-        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="DQ5" s="5" t="str">
-        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="DR5" s="5" t="str">
-        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="DS5" s="5" t="str">
-        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="DT5" s="5" t="str">
-        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="DU5" s="5" t="str">
-        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="DV5" s="5" t="str">
-        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="DW5" s="5" t="str">
-        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="DX5" s="5" t="str">
-        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="DY5" s="5" t="str">
-        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="DZ5" s="5" t="str">
-        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="EA5" s="5" t="str">
-        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="EB5" s="5" t="str">
-        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="EC5" s="5" t="str">
-        <f>IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -1604,491 +1712,491 @@
         <v>17</v>
       </c>
       <c r="L6" s="12">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <f t="shared" ref="L6:AQ6" si="4">IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
         <v>44312</v>
       </c>
       <c r="M6" s="12">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <f t="shared" si="4"/>
         <v>44313</v>
       </c>
       <c r="N6" s="12">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <f t="shared" si="4"/>
         <v>44314</v>
       </c>
       <c r="O6" s="12">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <f t="shared" si="4"/>
         <v>44315</v>
       </c>
       <c r="P6" s="12">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <f t="shared" si="4"/>
         <v>44316</v>
       </c>
       <c r="Q6" s="12">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <f t="shared" si="4"/>
         <v>44317</v>
       </c>
       <c r="R6" s="12">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <f t="shared" si="4"/>
         <v>44318</v>
       </c>
       <c r="S6" s="12">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <f t="shared" si="4"/>
         <v>44319</v>
       </c>
       <c r="T6" s="12">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <f t="shared" si="4"/>
         <v>44320</v>
       </c>
       <c r="U6" s="12">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <f t="shared" si="4"/>
         <v>44321</v>
       </c>
       <c r="V6" s="12">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <f t="shared" si="4"/>
         <v>44322</v>
       </c>
       <c r="W6" s="12">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <f t="shared" si="4"/>
         <v>44323</v>
       </c>
       <c r="X6" s="12">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <f t="shared" si="4"/>
         <v>44324</v>
       </c>
       <c r="Y6" s="12">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <f t="shared" si="4"/>
         <v>44325</v>
       </c>
       <c r="Z6" s="12">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <f t="shared" si="4"/>
         <v>44326</v>
       </c>
       <c r="AA6" s="12">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <f t="shared" si="4"/>
         <v>44327</v>
       </c>
       <c r="AB6" s="12">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <f t="shared" si="4"/>
         <v>44328</v>
       </c>
       <c r="AC6" s="12">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <f t="shared" si="4"/>
         <v>44329</v>
       </c>
       <c r="AD6" s="12">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <f t="shared" si="4"/>
         <v>44330</v>
       </c>
       <c r="AE6" s="12">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <f t="shared" si="4"/>
         <v>44331</v>
       </c>
       <c r="AF6" s="12">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <f t="shared" si="4"/>
         <v>44332</v>
       </c>
       <c r="AG6" s="12">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <f t="shared" si="4"/>
         <v>44333</v>
       </c>
       <c r="AH6" s="12">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <f t="shared" si="4"/>
         <v>44334</v>
       </c>
       <c r="AI6" s="12">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <f t="shared" si="4"/>
         <v>44335</v>
       </c>
       <c r="AJ6" s="12">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <f t="shared" si="4"/>
         <v>44336</v>
       </c>
       <c r="AK6" s="12">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <f t="shared" si="4"/>
         <v>44337</v>
       </c>
       <c r="AL6" s="12">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <f t="shared" si="4"/>
         <v>44338</v>
       </c>
       <c r="AM6" s="12">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <f t="shared" si="4"/>
         <v>44339</v>
       </c>
       <c r="AN6" s="12">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <f t="shared" si="4"/>
         <v>44340</v>
       </c>
       <c r="AO6" s="12" t="str">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AP6" s="12" t="str">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AQ6" s="12" t="str">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AR6" s="12" t="str">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <f t="shared" ref="AR6:BW6" si="5">IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
         <v/>
       </c>
       <c r="AS6" s="12" t="str">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AT6" s="12" t="str">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AU6" s="12" t="str">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AV6" s="12" t="str">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AW6" s="12" t="str">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AX6" s="12" t="str">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AY6" s="12" t="str">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AZ6" s="12" t="str">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BA6" s="12" t="str">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BB6" s="12" t="str">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BC6" s="12" t="str">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BD6" s="12" t="str">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BE6" s="12" t="str">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BF6" s="12" t="str">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BG6" s="12" t="str">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BH6" s="12" t="str">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BI6" s="12" t="str">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BJ6" s="12" t="str">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BK6" s="12" t="str">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BL6" s="12" t="str">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BM6" s="12" t="str">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BN6" s="12" t="str">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BO6" s="12" t="str">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BP6" s="12" t="str">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BQ6" s="12" t="str">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BR6" s="12" t="str">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BS6" s="12" t="str">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BT6" s="12" t="str">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BU6" s="12" t="str">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BV6" s="12" t="str">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BW6" s="12" t="str">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BX6" s="12" t="str">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <f t="shared" ref="BX6:DC6" si="6">IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
         <v/>
       </c>
       <c r="BY6" s="12" t="str">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="BZ6" s="12" t="str">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="CA6" s="12" t="str">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="CB6" s="12" t="str">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="CC6" s="12" t="str">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="CD6" s="12" t="str">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="CE6" s="12" t="str">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="CF6" s="12" t="str">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="CG6" s="12" t="str">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="CH6" s="12" t="str">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="CI6" s="12" t="str">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="CJ6" s="12" t="str">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="CK6" s="12" t="str">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="CL6" s="12" t="str">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="CM6" s="12" t="str">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="CN6" s="12" t="str">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="CO6" s="12" t="str">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="CP6" s="12" t="str">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="CQ6" s="12" t="str">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="CR6" s="12" t="str">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="CS6" s="12" t="str">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="CT6" s="12" t="str">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="CU6" s="12" t="str">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="CV6" s="12" t="str">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="CW6" s="12" t="str">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="CX6" s="12" t="str">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="CY6" s="12" t="str">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="CZ6" s="12" t="str">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="DA6" s="12" t="str">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="DB6" s="12" t="str">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="DC6" s="12" t="str">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="DD6" s="12" t="str">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <f t="shared" ref="DD6:EC6" si="7">IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
         <v/>
       </c>
       <c r="DE6" s="12" t="str">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="DF6" s="12" t="str">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="DG6" s="12" t="str">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="DH6" s="12" t="str">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="DI6" s="12" t="str">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="DJ6" s="12" t="str">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="DK6" s="12" t="str">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="DL6" s="12" t="str">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="DM6" s="12" t="str">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="DN6" s="12" t="str">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="DO6" s="12" t="str">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="DP6" s="12" t="str">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="DQ6" s="12" t="str">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="DR6" s="12" t="str">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="DS6" s="12" t="str">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="DT6" s="12" t="str">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="DU6" s="12" t="str">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="DV6" s="12" t="str">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="DW6" s="12" t="str">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="DX6" s="12" t="str">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="DY6" s="12" t="str">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="DZ6" s="12" t="str">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="EA6" s="12" t="str">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="EB6" s="12" t="str">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="EC6" s="12" t="str">
-        <f>IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -2121,7 +2229,7 @@
     </row>
     <row r="8" spans="1:133">
       <c r="A8">
-        <f t="shared" ref="A8:A71" si="0">ROW()-6</f>
+        <f t="shared" ref="A8:A71" si="8">ROW()-6</f>
         <v>2</v>
       </c>
       <c r="B8" t="s">
@@ -2148,7 +2256,7 @@
     </row>
     <row r="9" spans="1:133">
       <c r="A9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="B9" t="s">
@@ -2175,7 +2283,7 @@
     </row>
     <row r="10" spans="1:133">
       <c r="A10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="B10" t="s">
@@ -2199,955 +2307,970 @@
     </row>
     <row r="11" spans="1:133">
       <c r="A11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="7">
+        <v>4</v>
+      </c>
+      <c r="F11" s="6">
+        <v>44287</v>
+      </c>
+      <c r="G11" s="6">
+        <v>44377</v>
       </c>
     </row>
     <row r="12" spans="1:133">
       <c r="A12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:133">
       <c r="A13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:133">
       <c r="A14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:133">
       <c r="A15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:133">
       <c r="A16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>31</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>32</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>33</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>34</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>35</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>36</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>37</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>38</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>39</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>40</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>41</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>42</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>43</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>44</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>45</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>46</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>47</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>48</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>49</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>50</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>51</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>52</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>53</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>54</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>55</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>56</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>57</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>58</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>59</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>60</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>61</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>62</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>63</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>64</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>65</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72">
-        <f t="shared" ref="A72:A135" si="1">ROW()-6</f>
+        <f t="shared" ref="A72:A135" si="9">ROW()-6</f>
         <v>66</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>67</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>68</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>69</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>70</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>71</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>72</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>73</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>74</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>75</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>76</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>77</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>78</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>79</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>80</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>81</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>82</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>83</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>84</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>85</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>86</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>87</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>88</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>89</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>90</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>91</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>92</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>93</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>94</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>95</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>96</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>97</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>98</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>99</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>101</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>102</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>103</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>104</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>105</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>106</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>107</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>108</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>109</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>110</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>111</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>112</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>113</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>114</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>115</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>116</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>117</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>118</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>119</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>120</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>121</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>122</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>123</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>124</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>125</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>126</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>127</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>128</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>129</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136">
-        <f t="shared" ref="A136:A169" si="2">ROW()-6</f>
+        <f t="shared" ref="A136:A169" si="10">ROW()-6</f>
         <v>130</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>131</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>132</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>133</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>134</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>135</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>136</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>137</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>138</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>139</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>140</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>141</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>142</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>143</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>144</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>145</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>146</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>147</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>148</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>149</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>150</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>151</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>152</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>153</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>154</v>
       </c>
     </row>
     <row r="161" spans="1:133">
       <c r="A161">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>155</v>
       </c>
     </row>
     <row r="162" spans="1:133">
       <c r="A162">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>156</v>
       </c>
     </row>
     <row r="163" spans="1:133">
       <c r="A163">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>157</v>
       </c>
     </row>
     <row r="164" spans="1:133">
       <c r="A164">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>158</v>
       </c>
     </row>
     <row r="165" spans="1:133">
       <c r="A165">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>159</v>
       </c>
     </row>
     <row r="166" spans="1:133">
       <c r="A166">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>160</v>
       </c>
     </row>
     <row r="167" spans="1:133">
       <c r="A167">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>161</v>
       </c>
     </row>
     <row r="168" spans="1:133">
       <c r="A168">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>162</v>
       </c>
     </row>
     <row r="169" spans="1:133" s="13" customFormat="1" ht="19.5" thickBot="1">
       <c r="A169" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>163</v>
       </c>
       <c r="E169" s="14"/>
@@ -3175,24 +3298,27 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="L7:EC1013">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="6" priority="1">
       <formula>AND(AND(AND(L$6&gt;=$F7 - $F$3 + 1,L$6&lt;=$G7),NOT(L$6="")),$F7=$G7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="5" priority="3">
       <formula>AND(AND(AND(L$6&gt;=$F7 - $F$3 + 1,L$6&lt;=$G7),NOT(L$6="")),$H7=$H$4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="4" priority="4">
       <formula>AND(AND(AND(L$6&gt;=$F7 - $F$3 + 1,L$6&lt;=$G7),NOT(L$6="")),$H7=$H$3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="5">
+    <cfRule type="expression" dxfId="3" priority="6">
       <formula>AND(AND(L$6&gt;=$F7 - $F$3 + 1,L$6&lt;=$G7),NOT(L$6=""))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>AND(AND(AND(L$6&gt;=$F7 - $F$3 + 1,L$6&lt;=$G7),NOT(L$6="")),$D7 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6:EC1013">
-    <cfRule type="expression" dxfId="1" priority="6">
+    <cfRule type="expression" dxfId="2" priority="7">
       <formula>WEEKDAY(L$6) =7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="7">
+    <cfRule type="expression" dxfId="1" priority="8">
       <formula>WEEKDAY(L$6) =1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/GanttChart.xlsx
+++ b/GanttChart.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF6ABADA-24D9-46EA-A214-6F2B310DDB34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D39BC0D-73CB-4CDE-98DA-575E98C0CD7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="4680" windowWidth="18435" windowHeight="10935" xr2:uid="{51C15494-66F9-415D-ACBF-D6F98B0E2E93}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="37710" windowHeight="21840" activeTab="2" xr2:uid="{51C15494-66F9-415D-ACBF-D6F98B0E2E93}"/>
   </bookViews>
   <sheets>
     <sheet name="TimeLine" sheetId="1" r:id="rId1"/>
     <sheet name="Report" sheetId="2" r:id="rId2"/>
+    <sheet name="Excel-GanttChart" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TimeLine!$A$6:$K$169</definedName>
@@ -126,7 +127,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
   <si>
     <t>#</t>
     <phoneticPr fontId="1"/>
@@ -298,6 +299,14 @@
     <t>-</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>https://github.com/the6th/Excel-GanttChart</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Excel-GanttChart</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -306,7 +315,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="d"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -387,6 +396,15 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -408,7 +426,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -517,13 +535,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -539,9 +580,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -557,9 +595,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -623,18 +658,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <fill>
         <patternFill>
@@ -677,102 +715,8 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="lightGray">
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1098,11 +1042,11 @@
   </sheetPr>
   <dimension ref="A1:EC170"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="9" ySplit="6" topLeftCell="L7" activePane="bottomRight" state="frozen"/>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <pane xSplit="9" ySplit="6" topLeftCell="J7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="G17" sqref="G17"/>
+      <selection pane="bottomRight" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1111,12 +1055,12 @@
     <col min="2" max="2" width="11.875" customWidth="1"/>
     <col min="3" max="3" width="14.375" customWidth="1"/>
     <col min="4" max="4" width="8.5" customWidth="1"/>
-    <col min="5" max="5" width="6.75" style="7" customWidth="1"/>
+    <col min="5" max="5" width="6.75" style="6" customWidth="1"/>
     <col min="8" max="8" width="7.875" customWidth="1"/>
     <col min="9" max="9" width="15" customWidth="1"/>
     <col min="10" max="10" width="5.625" customWidth="1"/>
     <col min="11" max="11" width="5" customWidth="1"/>
-    <col min="12" max="12" width="5" style="10" customWidth="1"/>
+    <col min="12" max="12" width="5" style="9" customWidth="1"/>
     <col min="13" max="13" width="4.625" style="2" customWidth="1"/>
     <col min="14" max="14" width="4.75" style="2" customWidth="1"/>
     <col min="15" max="25" width="4.625" style="2" customWidth="1"/>
@@ -1126,554 +1070,600 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:133">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="24"/>
-      <c r="H1" s="26" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="22"/>
+      <c r="H1" s="24" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:133" ht="27" customHeight="1">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="32"/>
-      <c r="H2" s="27" t="s">
+      <c r="B2" s="29"/>
+      <c r="C2" s="30"/>
+      <c r="H2" s="25" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:133">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="19">
+      <c r="B3" s="16"/>
+      <c r="C3" s="17">
         <v>44317</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="21">
+      <c r="E3" s="18"/>
+      <c r="F3" s="19">
         <v>1</v>
       </c>
-      <c r="H3" s="27" t="s">
+      <c r="H3" s="25" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:133">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="19">
+      <c r="B4" s="16"/>
+      <c r="C4" s="17">
         <v>44346</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="20"/>
-      <c r="F4" s="25">
+      <c r="E4" s="18"/>
+      <c r="F4" s="23">
         <v>12</v>
       </c>
-      <c r="H4" s="27" t="s">
+      <c r="H4" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="L4" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:133" s="4" customFormat="1" ht="18">
-      <c r="E5" s="8"/>
-      <c r="L5" s="11" t="str">
-        <f t="shared" ref="L5:AQ5" si="0">IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
+      <c r="E5" s="7"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="31" t="str">
+        <f>IF(
+    OR(
+        COLUMN()=$F$4,
+        AND(
+            $C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,
+            DAY(
+                $C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1)
+            )
+            &lt;=$F$3
+        )
+    ),
+    TEXT(
+        $C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"
+    ),
+    ""
+)</f>
         <v>Apr</v>
       </c>
-      <c r="M5" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N5" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="O5" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="P5" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="Q5" s="5" t="str">
+      <c r="M5" s="31" t="str">
+        <f t="shared" ref="M5:BX5" si="0">IF(
+    OR(
+        COLUMN()=$F$4,
+        AND(
+            $C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,
+            DAY(
+                $C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1)
+            )
+            &lt;=$F$3
+        )
+    ),
+    TEXT(
+        $C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"
+    ),
+    ""
+)</f>
+        <v/>
+      </c>
+      <c r="N5" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O5" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P5" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Q5" s="31" t="str">
         <f t="shared" si="0"/>
         <v>May</v>
       </c>
-      <c r="R5" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="S5" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="T5" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="U5" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="V5" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="W5" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="X5" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="Y5" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="Z5" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AA5" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AB5" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AC5" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AD5" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AE5" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AF5" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AG5" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AH5" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AI5" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AJ5" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AK5" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AL5" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AM5" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AN5" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AO5" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AP5" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AQ5" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AR5" s="5" t="str">
-        <f t="shared" ref="AR5:BW5" si="1">IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
-        <v/>
-      </c>
-      <c r="AS5" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AT5" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AU5" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AV5" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AW5" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AX5" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AY5" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AZ5" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="BA5" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="BB5" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="BC5" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="BD5" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="BE5" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="BF5" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="BG5" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="BH5" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="BI5" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="BJ5" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="BK5" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="BL5" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="BM5" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="BN5" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="BO5" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="BP5" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="BQ5" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="BR5" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="BS5" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="BT5" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="BU5" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="BV5" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="BW5" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="BX5" s="5" t="str">
-        <f t="shared" ref="BX5:DC5" si="2">IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
-        <v/>
-      </c>
-      <c r="BY5" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="BZ5" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="CA5" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="CB5" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="CC5" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="CD5" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="CE5" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="CF5" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="CG5" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="CH5" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="CI5" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="CJ5" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="CK5" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="CL5" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="CM5" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="CN5" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="CO5" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="CP5" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="CQ5" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="CR5" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="CS5" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="CT5" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="CU5" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="CV5" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="CW5" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="CX5" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="CY5" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="CZ5" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="DA5" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="DB5" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="DC5" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="DD5" s="5" t="str">
-        <f t="shared" ref="DD5:EC5" si="3">IF(OR(COLUMN()=$F$4,AND($C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,DAY($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+$F$3))&lt;=$F$3)),TEXT($C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"),"")</f>
-        <v/>
-      </c>
-      <c r="DE5" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="DF5" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="DG5" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="DH5" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="DI5" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="DJ5" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="DK5" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="DL5" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="DM5" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="DN5" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="DO5" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="DP5" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="DQ5" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="DR5" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="DS5" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="DT5" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="DU5" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="DV5" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="DW5" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="DX5" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="DY5" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="DZ5" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="EA5" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="EB5" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="EC5" s="5" t="str">
-        <f t="shared" si="3"/>
+      <c r="R5" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="S5" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="T5" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="U5" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="V5" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="W5" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="X5" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Y5" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Z5" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AA5" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AB5" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AC5" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AD5" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AE5" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AF5" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AG5" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AH5" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AI5" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AJ5" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AK5" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AL5" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AM5" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AN5" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AO5" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AP5" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AQ5" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AR5" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AS5" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AT5" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AU5" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AV5" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AW5" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AX5" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AY5" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AZ5" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BA5" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BB5" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BC5" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BD5" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BE5" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BF5" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BG5" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BH5" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BI5" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BJ5" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BK5" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BL5" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BM5" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BN5" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BO5" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BP5" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BQ5" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BR5" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BS5" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BT5" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BU5" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BV5" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BW5" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BX5" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BY5" s="31" t="str">
+        <f t="shared" ref="BY5:EC5" si="1">IF(
+    OR(
+        COLUMN()=$F$4,
+        AND(
+            $C$3+((COLUMN()-$F$4)*$F$3)&lt;$C$4,
+            DAY(
+                $C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1)
+            )
+            &lt;=$F$3
+        )
+    ),
+    TEXT(
+        $C$3+((COLUMN()-$F$4)*$F$3)+(-WEEKDAY($C$3,2)+1),"mmm"
+    ),
+    ""
+)</f>
+        <v/>
+      </c>
+      <c r="BZ5" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CA5" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CB5" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CC5" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CD5" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CE5" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CF5" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CG5" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CH5" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CI5" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CJ5" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CK5" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CL5" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CM5" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CN5" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CO5" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CP5" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CQ5" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CR5" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CS5" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CT5" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CU5" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CV5" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CW5" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CX5" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CY5" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CZ5" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="DA5" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="DB5" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="DC5" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="DD5" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="DE5" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="DF5" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="DG5" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="DH5" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="DI5" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="DJ5" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="DK5" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="DL5" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="DM5" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="DN5" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="DO5" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="DP5" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="DQ5" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="DR5" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="DS5" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="DT5" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="DU5" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="DV5" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="DW5" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="DX5" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="DY5" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="DZ5" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="EA5" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="EB5" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="EC5" s="31" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1690,7 +1680,7 @@
       <c r="D6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="8" t="s">
         <v>18</v>
       </c>
       <c r="F6" s="3" t="s">
@@ -1711,492 +1701,492 @@
       <c r="K6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="12">
-        <f t="shared" ref="L6:AQ6" si="4">IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+      <c r="L6" s="10">
+        <f t="shared" ref="L6:AQ6" si="2">IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
         <v>44312</v>
       </c>
-      <c r="M6" s="12">
+      <c r="M6" s="10">
+        <f t="shared" si="2"/>
+        <v>44313</v>
+      </c>
+      <c r="N6" s="10">
+        <f t="shared" si="2"/>
+        <v>44314</v>
+      </c>
+      <c r="O6" s="10">
+        <f t="shared" si="2"/>
+        <v>44315</v>
+      </c>
+      <c r="P6" s="10">
+        <f t="shared" si="2"/>
+        <v>44316</v>
+      </c>
+      <c r="Q6" s="10">
+        <f t="shared" si="2"/>
+        <v>44317</v>
+      </c>
+      <c r="R6" s="10">
+        <f t="shared" si="2"/>
+        <v>44318</v>
+      </c>
+      <c r="S6" s="10">
+        <f t="shared" si="2"/>
+        <v>44319</v>
+      </c>
+      <c r="T6" s="10">
+        <f t="shared" si="2"/>
+        <v>44320</v>
+      </c>
+      <c r="U6" s="10">
+        <f t="shared" si="2"/>
+        <v>44321</v>
+      </c>
+      <c r="V6" s="10">
+        <f t="shared" si="2"/>
+        <v>44322</v>
+      </c>
+      <c r="W6" s="10">
+        <f t="shared" si="2"/>
+        <v>44323</v>
+      </c>
+      <c r="X6" s="10">
+        <f t="shared" si="2"/>
+        <v>44324</v>
+      </c>
+      <c r="Y6" s="10">
+        <f t="shared" si="2"/>
+        <v>44325</v>
+      </c>
+      <c r="Z6" s="10">
+        <f t="shared" si="2"/>
+        <v>44326</v>
+      </c>
+      <c r="AA6" s="10">
+        <f t="shared" si="2"/>
+        <v>44327</v>
+      </c>
+      <c r="AB6" s="10">
+        <f t="shared" si="2"/>
+        <v>44328</v>
+      </c>
+      <c r="AC6" s="10">
+        <f t="shared" si="2"/>
+        <v>44329</v>
+      </c>
+      <c r="AD6" s="10">
+        <f t="shared" si="2"/>
+        <v>44330</v>
+      </c>
+      <c r="AE6" s="10">
+        <f t="shared" si="2"/>
+        <v>44331</v>
+      </c>
+      <c r="AF6" s="10">
+        <f t="shared" si="2"/>
+        <v>44332</v>
+      </c>
+      <c r="AG6" s="10">
+        <f t="shared" si="2"/>
+        <v>44333</v>
+      </c>
+      <c r="AH6" s="10">
+        <f t="shared" si="2"/>
+        <v>44334</v>
+      </c>
+      <c r="AI6" s="10">
+        <f t="shared" si="2"/>
+        <v>44335</v>
+      </c>
+      <c r="AJ6" s="10">
+        <f t="shared" si="2"/>
+        <v>44336</v>
+      </c>
+      <c r="AK6" s="10">
+        <f t="shared" si="2"/>
+        <v>44337</v>
+      </c>
+      <c r="AL6" s="10">
+        <f t="shared" si="2"/>
+        <v>44338</v>
+      </c>
+      <c r="AM6" s="10">
+        <f t="shared" si="2"/>
+        <v>44339</v>
+      </c>
+      <c r="AN6" s="10">
+        <f t="shared" si="2"/>
+        <v>44340</v>
+      </c>
+      <c r="AO6" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AP6" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AQ6" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AR6" s="10" t="str">
+        <f t="shared" ref="AR6:BW6" si="3">IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <v/>
+      </c>
+      <c r="AS6" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AT6" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AU6" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AV6" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AW6" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AX6" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AY6" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AZ6" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="BA6" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="BB6" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="BC6" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="BD6" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="BE6" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="BF6" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="BG6" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="BH6" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="BI6" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="BJ6" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="BK6" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="BL6" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="BM6" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="BN6" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="BO6" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="BP6" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="BQ6" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="BR6" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="BS6" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="BT6" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="BU6" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="BV6" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="BW6" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="BX6" s="10" t="str">
+        <f t="shared" ref="BX6:DC6" si="4">IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <v/>
+      </c>
+      <c r="BY6" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>44313</v>
-      </c>
-      <c r="N6" s="12">
+        <v/>
+      </c>
+      <c r="BZ6" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>44314</v>
-      </c>
-      <c r="O6" s="12">
+        <v/>
+      </c>
+      <c r="CA6" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>44315</v>
-      </c>
-      <c r="P6" s="12">
+        <v/>
+      </c>
+      <c r="CB6" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>44316</v>
-      </c>
-      <c r="Q6" s="12">
+        <v/>
+      </c>
+      <c r="CC6" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>44317</v>
-      </c>
-      <c r="R6" s="12">
+        <v/>
+      </c>
+      <c r="CD6" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>44318</v>
-      </c>
-      <c r="S6" s="12">
+        <v/>
+      </c>
+      <c r="CE6" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>44319</v>
-      </c>
-      <c r="T6" s="12">
+        <v/>
+      </c>
+      <c r="CF6" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>44320</v>
-      </c>
-      <c r="U6" s="12">
+        <v/>
+      </c>
+      <c r="CG6" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>44321</v>
-      </c>
-      <c r="V6" s="12">
+        <v/>
+      </c>
+      <c r="CH6" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>44322</v>
-      </c>
-      <c r="W6" s="12">
+        <v/>
+      </c>
+      <c r="CI6" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>44323</v>
-      </c>
-      <c r="X6" s="12">
+        <v/>
+      </c>
+      <c r="CJ6" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>44324</v>
-      </c>
-      <c r="Y6" s="12">
+        <v/>
+      </c>
+      <c r="CK6" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>44325</v>
-      </c>
-      <c r="Z6" s="12">
+        <v/>
+      </c>
+      <c r="CL6" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>44326</v>
-      </c>
-      <c r="AA6" s="12">
+        <v/>
+      </c>
+      <c r="CM6" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>44327</v>
-      </c>
-      <c r="AB6" s="12">
+        <v/>
+      </c>
+      <c r="CN6" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>44328</v>
-      </c>
-      <c r="AC6" s="12">
+        <v/>
+      </c>
+      <c r="CO6" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>44329</v>
-      </c>
-      <c r="AD6" s="12">
+        <v/>
+      </c>
+      <c r="CP6" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>44330</v>
-      </c>
-      <c r="AE6" s="12">
+        <v/>
+      </c>
+      <c r="CQ6" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>44331</v>
-      </c>
-      <c r="AF6" s="12">
+        <v/>
+      </c>
+      <c r="CR6" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>44332</v>
-      </c>
-      <c r="AG6" s="12">
+        <v/>
+      </c>
+      <c r="CS6" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>44333</v>
-      </c>
-      <c r="AH6" s="12">
+        <v/>
+      </c>
+      <c r="CT6" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>44334</v>
-      </c>
-      <c r="AI6" s="12">
+        <v/>
+      </c>
+      <c r="CU6" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>44335</v>
-      </c>
-      <c r="AJ6" s="12">
+        <v/>
+      </c>
+      <c r="CV6" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>44336</v>
-      </c>
-      <c r="AK6" s="12">
+        <v/>
+      </c>
+      <c r="CW6" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>44337</v>
-      </c>
-      <c r="AL6" s="12">
+        <v/>
+      </c>
+      <c r="CX6" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>44338</v>
-      </c>
-      <c r="AM6" s="12">
+        <v/>
+      </c>
+      <c r="CY6" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>44339</v>
-      </c>
-      <c r="AN6" s="12">
+        <v/>
+      </c>
+      <c r="CZ6" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>44340</v>
-      </c>
-      <c r="AO6" s="12" t="str">
+        <v/>
+      </c>
+      <c r="DA6" s="10" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AP6" s="12" t="str">
+      <c r="DB6" s="10" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AQ6" s="12" t="str">
+      <c r="DC6" s="10" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AR6" s="12" t="str">
-        <f t="shared" ref="AR6:BW6" si="5">IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
-        <v/>
-      </c>
-      <c r="AS6" s="12" t="str">
+      <c r="DD6" s="10" t="str">
+        <f t="shared" ref="DD6:EC6" si="5">IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
+        <v/>
+      </c>
+      <c r="DE6" s="10" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AT6" s="12" t="str">
+      <c r="DF6" s="10" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AU6" s="12" t="str">
+      <c r="DG6" s="10" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AV6" s="12" t="str">
+      <c r="DH6" s="10" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AW6" s="12" t="str">
+      <c r="DI6" s="10" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AX6" s="12" t="str">
+      <c r="DJ6" s="10" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AY6" s="12" t="str">
+      <c r="DK6" s="10" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AZ6" s="12" t="str">
+      <c r="DL6" s="10" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="BA6" s="12" t="str">
+      <c r="DM6" s="10" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="BB6" s="12" t="str">
+      <c r="DN6" s="10" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="BC6" s="12" t="str">
+      <c r="DO6" s="10" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="BD6" s="12" t="str">
+      <c r="DP6" s="10" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="BE6" s="12" t="str">
+      <c r="DQ6" s="10" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="BF6" s="12" t="str">
+      <c r="DR6" s="10" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="BG6" s="12" t="str">
+      <c r="DS6" s="10" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="BH6" s="12" t="str">
+      <c r="DT6" s="10" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="BI6" s="12" t="str">
+      <c r="DU6" s="10" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="BJ6" s="12" t="str">
+      <c r="DV6" s="10" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="BK6" s="12" t="str">
+      <c r="DW6" s="10" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="BL6" s="12" t="str">
+      <c r="DX6" s="10" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="BM6" s="12" t="str">
+      <c r="DY6" s="10" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="BN6" s="12" t="str">
+      <c r="DZ6" s="10" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="BO6" s="12" t="str">
+      <c r="EA6" s="10" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="BP6" s="12" t="str">
+      <c r="EB6" s="10" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="BQ6" s="12" t="str">
+      <c r="EC6" s="10" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="BR6" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="BS6" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="BT6" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="BU6" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="BV6" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="BW6" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="BX6" s="12" t="str">
-        <f t="shared" ref="BX6:DC6" si="6">IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
-        <v/>
-      </c>
-      <c r="BY6" s="12" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="BZ6" s="12" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="CA6" s="12" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="CB6" s="12" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="CC6" s="12" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="CD6" s="12" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="CE6" s="12" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="CF6" s="12" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="CG6" s="12" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="CH6" s="12" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="CI6" s="12" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="CJ6" s="12" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="CK6" s="12" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="CL6" s="12" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="CM6" s="12" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="CN6" s="12" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="CO6" s="12" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="CP6" s="12" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="CQ6" s="12" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="CR6" s="12" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="CS6" s="12" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="CT6" s="12" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="CU6" s="12" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="CV6" s="12" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="CW6" s="12" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="CX6" s="12" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="CY6" s="12" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="CZ6" s="12" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="DA6" s="12" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="DB6" s="12" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="DC6" s="12" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="DD6" s="12" t="str">
-        <f t="shared" ref="DD6:EC6" si="7">IF($C$3+((COLUMN()-$F$4) * $F$3) &lt; $C$4,$C$3+((COLUMN()-$F$4) * $F$3) +(-WEEKDAY($C$3,2)+1),"")</f>
-        <v/>
-      </c>
-      <c r="DE6" s="12" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="DF6" s="12" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="DG6" s="12" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="DH6" s="12" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="DI6" s="12" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="DJ6" s="12" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="DK6" s="12" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="DL6" s="12" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="DM6" s="12" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="DN6" s="12" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="DO6" s="12" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="DP6" s="12" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="DQ6" s="12" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="DR6" s="12" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="DS6" s="12" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="DT6" s="12" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="DU6" s="12" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="DV6" s="12" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="DW6" s="12" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="DX6" s="12" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="DY6" s="12" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="DZ6" s="12" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="EA6" s="12" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="EB6" s="12" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="EC6" s="12" t="str">
-        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -2214,22 +2204,22 @@
       <c r="D7" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="6">
         <v>2</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="5">
         <v>44306</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="5">
         <v>44306</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:133">
       <c r="A8">
-        <f t="shared" ref="A8:A71" si="8">ROW()-6</f>
+        <f t="shared" ref="A8:A71" si="6">ROW()-6</f>
         <v>2</v>
       </c>
       <c r="B8" t="s">
@@ -2241,22 +2231,22 @@
       <c r="D8" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="6">
         <v>3</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="5">
         <v>44306</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="5">
         <v>44330</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:133">
       <c r="A9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="B9" t="s">
@@ -2268,22 +2258,22 @@
       <c r="D9" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="6">
         <v>4</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="5">
         <v>44316</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="5">
         <v>44328</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:133">
       <c r="A10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="B10" t="s">
@@ -2295,19 +2285,19 @@
       <c r="D10" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="6">
         <v>4</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="5">
         <v>44287</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="5">
         <v>44377</v>
       </c>
     </row>
     <row r="11" spans="1:133">
       <c r="A11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="B11" t="s">
@@ -2316,979 +2306,979 @@
       <c r="C11" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="6">
         <v>4</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="5">
         <v>44287</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="5">
         <v>44377</v>
       </c>
     </row>
     <row r="12" spans="1:133">
       <c r="A12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:133">
       <c r="A13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:133">
       <c r="A14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:133">
       <c r="A15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:133">
       <c r="A16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>31</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>32</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>33</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>34</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>35</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>36</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>37</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>38</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>39</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>40</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>41</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>42</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>43</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>44</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>45</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>46</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>47</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>48</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>49</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>50</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>51</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>52</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>53</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>54</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>55</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>56</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>57</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>58</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>59</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>61</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>62</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>63</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>64</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>65</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72">
-        <f t="shared" ref="A72:A135" si="9">ROW()-6</f>
+        <f t="shared" ref="A72:A135" si="7">ROW()-6</f>
         <v>66</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>67</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>68</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>69</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>70</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>71</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>72</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>73</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>74</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>75</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>76</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>77</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>78</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>79</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>80</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>81</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>82</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>83</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>84</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>85</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>86</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>87</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>88</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>89</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>90</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>91</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>92</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>93</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>94</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>95</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>96</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>97</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>98</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>99</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>101</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>102</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>103</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>104</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>105</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>106</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>107</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>108</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>109</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>110</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>111</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>112</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>113</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>114</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>115</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>116</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>117</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>118</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>119</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>120</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>121</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>122</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>123</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>124</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>125</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>126</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>127</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>128</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>129</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136">
-        <f t="shared" ref="A136:A169" si="10">ROW()-6</f>
+        <f t="shared" ref="A136:A169" si="8">ROW()-6</f>
         <v>130</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>131</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>132</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>133</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>134</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>135</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>136</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>137</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>138</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>139</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>140</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>141</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>142</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>143</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>144</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>145</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>146</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>147</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>148</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>149</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>150</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>151</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>152</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>153</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>154</v>
       </c>
     </row>
     <row r="161" spans="1:133">
       <c r="A161">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>155</v>
       </c>
     </row>
     <row r="162" spans="1:133">
       <c r="A162">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>156</v>
       </c>
     </row>
     <row r="163" spans="1:133">
       <c r="A163">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>157</v>
       </c>
     </row>
     <row r="164" spans="1:133">
       <c r="A164">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>158</v>
       </c>
     </row>
     <row r="165" spans="1:133">
       <c r="A165">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>159</v>
       </c>
     </row>
     <row r="166" spans="1:133">
       <c r="A166">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>160</v>
       </c>
     </row>
     <row r="167" spans="1:133">
       <c r="A167">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>161</v>
       </c>
     </row>
     <row r="168" spans="1:133">
       <c r="A168">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>162</v>
       </c>
     </row>
-    <row r="169" spans="1:133" s="13" customFormat="1" ht="19.5" thickBot="1">
-      <c r="A169" s="13">
-        <f t="shared" si="10"/>
+    <row r="169" spans="1:133" s="11" customFormat="1" ht="19.5" thickBot="1">
+      <c r="A169" s="11">
+        <f t="shared" si="8"/>
         <v>163</v>
       </c>
-      <c r="E169" s="14"/>
-      <c r="L169" s="15"/>
-      <c r="M169" s="16"/>
-      <c r="N169" s="16"/>
-      <c r="O169" s="16"/>
-      <c r="P169" s="16"/>
-      <c r="Q169" s="16"/>
-      <c r="R169" s="16"/>
-      <c r="S169" s="16"/>
-      <c r="T169" s="16"/>
-      <c r="U169" s="16"/>
-      <c r="V169" s="16"/>
-      <c r="W169" s="16"/>
-      <c r="X169" s="16"/>
-      <c r="Y169" s="16"/>
-      <c r="EC169" s="17"/>
+      <c r="E169" s="12"/>
+      <c r="L169" s="13"/>
+      <c r="M169" s="14"/>
+      <c r="N169" s="14"/>
+      <c r="O169" s="14"/>
+      <c r="P169" s="14"/>
+      <c r="Q169" s="14"/>
+      <c r="R169" s="14"/>
+      <c r="S169" s="14"/>
+      <c r="T169" s="14"/>
+      <c r="U169" s="14"/>
+      <c r="V169" s="14"/>
+      <c r="W169" s="14"/>
+      <c r="X169" s="14"/>
+      <c r="Y169" s="14"/>
+      <c r="EC169" s="15"/>
     </row>
     <row r="170" spans="1:133" ht="19.5" thickTop="1"/>
   </sheetData>
@@ -3301,24 +3291,24 @@
     <cfRule type="expression" dxfId="6" priority="1">
       <formula>AND(AND(AND(L$6&gt;=$F7 - $F$3 + 1,L$6&lt;=$G7),NOT(L$6="")),$F7=$G7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="3">
+    <cfRule type="expression" dxfId="5" priority="2">
+      <formula>AND(AND(AND(L$6&gt;=$F7 - $F$3 + 1,L$6&lt;=$G7),NOT(L$6="")),$D7 = "")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="3">
       <formula>AND(AND(AND(L$6&gt;=$F7 - $F$3 + 1,L$6&lt;=$G7),NOT(L$6="")),$H7=$H$4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="4">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>AND(AND(AND(L$6&gt;=$F7 - $F$3 + 1,L$6&lt;=$G7),NOT(L$6="")),$H7=$H$3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="6">
+    <cfRule type="expression" dxfId="2" priority="6">
       <formula>AND(AND(L$6&gt;=$F7 - $F$3 + 1,L$6&lt;=$G7),NOT(L$6=""))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
-      <formula>AND(AND(AND(L$6&gt;=$F7 - $F$3 + 1,L$6&lt;=$G7),NOT(L$6="")),$D7 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6:EC1013">
-    <cfRule type="expression" dxfId="2" priority="7">
+    <cfRule type="expression" dxfId="1" priority="7">
       <formula>WEEKDAY(L$6) =7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="8">
+    <cfRule type="expression" dxfId="0" priority="8">
       <formula>WEEKDAY(L$6) =1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3337,7 +3327,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2742E82F-5ED0-4833-895C-C75CEDF7E47D}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData/>
@@ -3345,4 +3337,33 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA74DBA3-BD35-47CD-8BDB-C8262BD8A83A}">
+  <dimension ref="B1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="2:2">
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" s="33" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{C756C52C-47F9-41E5-BBF1-02574463C645}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>